--- a/Cavalry2025stats.xlsx
+++ b/Cavalry2025stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18934BB3-C209-4467-8D0F-1705D9931E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5A072F-E643-4CA6-BD30-7514E28BCF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24390" yWindow="3860" windowWidth="23930" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20790" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamStats" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
   <si>
     <t>Scheme</t>
   </si>
@@ -203,15 +203,29 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>Cavalry - Vancouver FC 1:1</t>
+  </si>
+  <si>
+    <t>4-2-3-1 (79.12%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -236,7 +250,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -554,18 +570,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DG2"/>
+  <dimension ref="A1:DG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CS1" workbookViewId="0">
-      <selection activeCell="DG12" sqref="DG12"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
@@ -672,14 +689,14 @@
       <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -687,130 +704,130 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="U1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AH1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AK1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AN1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AQ1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AT1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AW1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AW1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AY1" t="s">
@@ -819,25 +836,25 @@
       <c r="AZ1" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BB1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="BD1" t="s">
         <v>21</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BF1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BF1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="BH1" t="s">
@@ -846,40 +863,40 @@
       <c r="BI1" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BK1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BN1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="BQ1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BQ1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BT1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BT1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="BV1" t="s">
@@ -897,76 +914,76 @@
       <c r="BZ1" t="s">
         <v>33</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="CB1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CB1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CE1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CH1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CH1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="CK1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CK1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="CN1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CN1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CQ1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CQ1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="CT1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CT1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="CW1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CW1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="CY1" t="s">
@@ -1010,10 +1027,10 @@
       <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="1">
@@ -1330,6 +1347,341 @@
       </c>
       <c r="DG2" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2">
+        <v>506</v>
+      </c>
+      <c r="M3" s="2">
+        <v>410</v>
+      </c>
+      <c r="N3" s="2">
+        <v>81.03</v>
+      </c>
+      <c r="O3" s="2">
+        <v>65.69</v>
+      </c>
+      <c r="P3" s="2">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2">
+        <v>50</v>
+      </c>
+      <c r="S3" s="2">
+        <v>72</v>
+      </c>
+      <c r="T3" s="2">
+        <v>93</v>
+      </c>
+      <c r="U3" s="2">
+        <v>32</v>
+      </c>
+      <c r="V3" s="2">
+        <v>42</v>
+      </c>
+      <c r="W3" s="2">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>46.01</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>22.86</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>30</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>15</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>15</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>32</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>32.32</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>10</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>5</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>50</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>58</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>41</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>70.69</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>32</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>17</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>53.13</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>9</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>5</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>55.56</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>38</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>11</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>10</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>187</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>136</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>72.73</v>
+      </c>
+      <c r="CD3" s="2">
+        <v>74</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>72</v>
+      </c>
+      <c r="CF3" s="2">
+        <v>97.3</v>
+      </c>
+      <c r="CG3" s="2">
+        <v>178</v>
+      </c>
+      <c r="CH3" s="2">
+        <v>149</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>83.71</v>
+      </c>
+      <c r="CJ3" s="2">
+        <v>56</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>28</v>
+      </c>
+      <c r="CL3" s="2">
+        <v>50</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>72</v>
+      </c>
+      <c r="CN3" s="2">
+        <v>49</v>
+      </c>
+      <c r="CO3" s="2">
+        <v>68.06</v>
+      </c>
+      <c r="CP3" s="2">
+        <v>81</v>
+      </c>
+      <c r="CQ3" s="2">
+        <v>53</v>
+      </c>
+      <c r="CR3" s="2">
+        <v>65.430000000000007</v>
+      </c>
+      <c r="CS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="2">
+        <v>29</v>
+      </c>
+      <c r="CW3" s="2">
+        <v>28</v>
+      </c>
+      <c r="CX3" s="2">
+        <v>96.55</v>
+      </c>
+      <c r="CY3" s="2">
+        <v>8</v>
+      </c>
+      <c r="CZ3" s="2">
+        <v>15.23</v>
+      </c>
+      <c r="DA3" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="DB3" s="2">
+        <v>11.07</v>
+      </c>
+      <c r="DC3" s="2">
+        <v>22.41</v>
+      </c>
+      <c r="DD3" s="2">
+        <v>19.88</v>
+      </c>
+      <c r="DE3" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="DF3">
+        <v>7.2</v>
+      </c>
+      <c r="DG3">
+        <v>3.39</v>
       </c>
     </row>
   </sheetData>
@@ -1362,6 +1714,7 @@
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="X1:Z1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>